--- a/Financials/Yearly/BCS_YR_FIN.xlsx
+++ b/Financials/Yearly/BCS_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDD4D9C-7CCC-46C9-90A0-B03FD5B1B11F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCS" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BCS</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,86 +689,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17949200</v>
+        <v>17621200</v>
       </c>
       <c r="E8" s="3">
-        <v>19147400</v>
+        <v>17779000</v>
       </c>
       <c r="F8" s="3">
-        <v>18373200</v>
+        <v>18966000</v>
       </c>
       <c r="G8" s="3">
-        <v>18690500</v>
+        <v>18199000</v>
       </c>
       <c r="H8" s="3">
-        <v>24117000</v>
+        <v>18513400</v>
       </c>
       <c r="I8" s="3">
-        <v>25298200</v>
+        <v>23888400</v>
       </c>
       <c r="J8" s="3">
+        <v>25058400</v>
+      </c>
+      <c r="K8" s="3">
         <v>27111400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,9 +799,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,9 +829,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +903,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,36 +933,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1528800</v>
+        <v>-1633000</v>
       </c>
       <c r="E15" s="3">
-        <v>-1530100</v>
+        <v>-1514300</v>
       </c>
       <c r="F15" s="3">
-        <v>-1376000</v>
+        <v>-1515600</v>
       </c>
       <c r="G15" s="3">
-        <v>-1249600</v>
+        <v>-1363000</v>
       </c>
       <c r="H15" s="3">
-        <v>-1484000</v>
+        <v>-1237800</v>
       </c>
       <c r="I15" s="3">
-        <v>-1453700</v>
+        <v>-1470000</v>
       </c>
       <c r="J15" s="3">
+        <v>-1440000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1437900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8061400</v>
+        <v>9061000</v>
       </c>
       <c r="E17" s="3">
-        <v>8397200</v>
+        <v>7985000</v>
       </c>
       <c r="F17" s="3">
-        <v>6724800</v>
+        <v>8317600</v>
       </c>
       <c r="G17" s="3">
-        <v>7807200</v>
+        <v>6661100</v>
       </c>
       <c r="H17" s="3">
-        <v>12886100</v>
+        <v>7733300</v>
       </c>
       <c r="I17" s="3">
-        <v>14350400</v>
+        <v>12764000</v>
       </c>
       <c r="J17" s="3">
+        <v>14214400</v>
+      </c>
+      <c r="K17" s="3">
         <v>18421900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9887800</v>
+        <v>8560200</v>
       </c>
       <c r="E18" s="3">
-        <v>10750300</v>
+        <v>9794100</v>
       </c>
       <c r="F18" s="3">
-        <v>11648300</v>
+        <v>10648400</v>
       </c>
       <c r="G18" s="3">
-        <v>10883300</v>
+        <v>11537900</v>
       </c>
       <c r="H18" s="3">
-        <v>11230900</v>
+        <v>10780100</v>
       </c>
       <c r="I18" s="3">
-        <v>10947800</v>
+        <v>11124500</v>
       </c>
       <c r="J18" s="3">
+        <v>10844000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8689500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1051,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5225000</v>
+        <v>-4005500</v>
       </c>
       <c r="E20" s="3">
-        <v>-6497000</v>
+        <v>-5175500</v>
       </c>
       <c r="F20" s="3">
-        <v>-10139300</v>
+        <v>-6435500</v>
       </c>
       <c r="G20" s="3">
-        <v>-9154300</v>
+        <v>-10043200</v>
       </c>
       <c r="H20" s="3">
-        <v>-7454300</v>
+        <v>-9067600</v>
       </c>
       <c r="I20" s="3">
-        <v>-9898300</v>
+        <v>-7383700</v>
       </c>
       <c r="J20" s="3">
+        <v>-9804500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1091600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6290800</v>
+        <v>6217800</v>
       </c>
       <c r="E21" s="3">
-        <v>5907600</v>
+        <v>6255300</v>
       </c>
       <c r="F21" s="3">
-        <v>3103000</v>
+        <v>5876100</v>
       </c>
       <c r="G21" s="3">
-        <v>3182500</v>
+        <v>3097200</v>
       </c>
       <c r="H21" s="3">
-        <v>5447900</v>
+        <v>3173900</v>
       </c>
       <c r="I21" s="3">
-        <v>2517500</v>
+        <v>5421000</v>
       </c>
       <c r="J21" s="3">
+        <v>2515400</v>
+      </c>
+      <c r="K21" s="3">
         <v>9046200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,63 +1138,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4662800</v>
+        <v>4554700</v>
       </c>
       <c r="E23" s="3">
-        <v>4253200</v>
+        <v>4618600</v>
       </c>
       <c r="F23" s="3">
-        <v>1509000</v>
+        <v>4212900</v>
       </c>
       <c r="G23" s="3">
-        <v>1728900</v>
+        <v>1494700</v>
       </c>
       <c r="H23" s="3">
-        <v>3776600</v>
+        <v>1712600</v>
       </c>
       <c r="I23" s="3">
-        <v>1049500</v>
+        <v>3740800</v>
       </c>
       <c r="J23" s="3">
+        <v>1039500</v>
+      </c>
+      <c r="K23" s="3">
         <v>7597900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1549900</v>
+        <v>890800</v>
       </c>
       <c r="E24" s="3">
-        <v>1307600</v>
+        <v>1535200</v>
       </c>
       <c r="F24" s="3">
-        <v>1513000</v>
+        <v>1295200</v>
       </c>
       <c r="G24" s="3">
-        <v>1476100</v>
+        <v>1498700</v>
       </c>
       <c r="H24" s="3">
-        <v>2068700</v>
+        <v>1462100</v>
       </c>
       <c r="I24" s="3">
-        <v>811100</v>
+        <v>2049100</v>
       </c>
       <c r="J24" s="3">
+        <v>803500</v>
+      </c>
+      <c r="K24" s="3">
         <v>2504500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3112900</v>
+        <v>3663800</v>
       </c>
       <c r="E26" s="3">
-        <v>2945700</v>
+        <v>3083400</v>
       </c>
       <c r="F26" s="3">
-        <v>-4000</v>
+        <v>2917700</v>
       </c>
       <c r="G26" s="3">
-        <v>252800</v>
+        <v>-3900</v>
       </c>
       <c r="H26" s="3">
-        <v>1707900</v>
+        <v>250400</v>
       </c>
       <c r="I26" s="3">
-        <v>238300</v>
+        <v>1691700</v>
       </c>
       <c r="J26" s="3">
+        <v>236100</v>
+      </c>
+      <c r="K26" s="3">
         <v>5093300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2172700</v>
+        <v>2653000</v>
       </c>
       <c r="E27" s="3">
-        <v>2056800</v>
+        <v>2152100</v>
       </c>
       <c r="F27" s="3">
-        <v>-824300</v>
+        <v>2037300</v>
       </c>
       <c r="G27" s="3">
-        <v>-596500</v>
+        <v>-816500</v>
       </c>
       <c r="H27" s="3">
-        <v>711100</v>
+        <v>-590900</v>
       </c>
       <c r="I27" s="3">
-        <v>-821700</v>
+        <v>704300</v>
       </c>
       <c r="J27" s="3">
+        <v>-813900</v>
+      </c>
+      <c r="K27" s="3">
         <v>3850300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1318,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-4474500</v>
+        <v>-572600</v>
       </c>
       <c r="E29" s="3">
-        <v>248900</v>
+        <v>-4432000</v>
       </c>
       <c r="F29" s="3">
-        <v>397700</v>
+        <v>246500</v>
       </c>
       <c r="G29" s="3">
-        <v>438500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+        <v>393900</v>
+      </c>
+      <c r="H29" s="3">
+        <v>434300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5225000</v>
+        <v>4005500</v>
       </c>
       <c r="E32" s="3">
-        <v>6497000</v>
+        <v>5175500</v>
       </c>
       <c r="F32" s="3">
-        <v>10139300</v>
+        <v>6435500</v>
       </c>
       <c r="G32" s="3">
-        <v>9154300</v>
+        <v>10043200</v>
       </c>
       <c r="H32" s="3">
-        <v>7454300</v>
+        <v>9067600</v>
       </c>
       <c r="I32" s="3">
-        <v>9898300</v>
+        <v>7383700</v>
       </c>
       <c r="J32" s="3">
+        <v>9804500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1091600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2301700</v>
+        <v>2080400</v>
       </c>
       <c r="E33" s="3">
-        <v>2305700</v>
+        <v>-2279900</v>
       </c>
       <c r="F33" s="3">
-        <v>-426600</v>
+        <v>2283800</v>
       </c>
       <c r="G33" s="3">
-        <v>-158000</v>
+        <v>-422600</v>
       </c>
       <c r="H33" s="3">
-        <v>711100</v>
+        <v>-156500</v>
       </c>
       <c r="I33" s="3">
-        <v>-821700</v>
+        <v>704300</v>
       </c>
       <c r="J33" s="3">
+        <v>-813900</v>
+      </c>
+      <c r="K33" s="3">
         <v>3850300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2301700</v>
+        <v>2080400</v>
       </c>
       <c r="E35" s="3">
-        <v>2305700</v>
+        <v>-2279900</v>
       </c>
       <c r="F35" s="3">
-        <v>-426600</v>
+        <v>2283800</v>
       </c>
       <c r="G35" s="3">
-        <v>-158000</v>
+        <v>-422600</v>
       </c>
       <c r="H35" s="3">
-        <v>711100</v>
+        <v>-156500</v>
       </c>
       <c r="I35" s="3">
-        <v>-821700</v>
+        <v>704300</v>
       </c>
       <c r="J35" s="3">
+        <v>-813900</v>
+      </c>
+      <c r="K35" s="3">
         <v>3850300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,62 +1594,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>275075000</v>
+        <v>244746000</v>
       </c>
       <c r="E41" s="3">
-        <v>193662000</v>
+        <v>239821000</v>
       </c>
       <c r="F41" s="3">
-        <v>121238000</v>
+        <v>191826000</v>
       </c>
       <c r="G41" s="3">
-        <v>109315000</v>
+        <v>120089000</v>
       </c>
       <c r="H41" s="3">
-        <v>227518000</v>
+        <v>108279000</v>
       </c>
       <c r="I41" s="3">
-        <v>166775000</v>
+        <v>225361000</v>
       </c>
       <c r="J41" s="3">
+        <v>165195000</v>
+      </c>
+      <c r="K41" s="3">
         <v>203233000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>734010000</v>
+        <v>589178000</v>
       </c>
       <c r="E42" s="3">
-        <v>579809000</v>
+        <v>727054000</v>
       </c>
       <c r="F42" s="3">
-        <v>570491000</v>
+        <v>574314000</v>
       </c>
       <c r="G42" s="3">
-        <v>903817000</v>
+        <v>565085000</v>
       </c>
       <c r="H42" s="3">
-        <v>933757000</v>
+        <v>895251000</v>
       </c>
       <c r="I42" s="3">
-        <v>236546000</v>
+        <v>924907000</v>
       </c>
       <c r="J42" s="3">
+        <v>234304000</v>
+      </c>
+      <c r="K42" s="3">
         <v>205747000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +1681,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,9 +1711,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1608,9 +1741,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,90 +1771,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>945500</v>
+        <v>993900</v>
       </c>
       <c r="E47" s="3">
-        <v>900700</v>
+        <v>936500</v>
       </c>
       <c r="F47" s="3">
-        <v>754500</v>
+        <v>892100</v>
       </c>
       <c r="G47" s="3">
-        <v>936200</v>
+        <v>747400</v>
       </c>
       <c r="H47" s="3">
-        <v>859900</v>
+        <v>927400</v>
       </c>
       <c r="I47" s="3">
-        <v>833500</v>
+        <v>851700</v>
       </c>
       <c r="J47" s="3">
+        <v>825600</v>
+      </c>
+      <c r="K47" s="3">
         <v>562300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6773600</v>
+        <v>3306400</v>
       </c>
       <c r="E48" s="3">
-        <v>3719900</v>
+        <v>6709400</v>
       </c>
       <c r="F48" s="3">
-        <v>4566600</v>
+        <v>3684700</v>
       </c>
       <c r="G48" s="3">
-        <v>4985400</v>
+        <v>4523300</v>
       </c>
       <c r="H48" s="3">
-        <v>11103200</v>
+        <v>4938100</v>
       </c>
       <c r="I48" s="3">
-        <v>7576800</v>
+        <v>10997900</v>
       </c>
       <c r="J48" s="3">
+        <v>7505000</v>
+      </c>
+      <c r="K48" s="3">
         <v>9436100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20671000</v>
+        <v>10399300</v>
       </c>
       <c r="E49" s="3">
-        <v>10173500</v>
+        <v>20475100</v>
       </c>
       <c r="F49" s="3">
-        <v>10826600</v>
+        <v>10077100</v>
       </c>
       <c r="G49" s="3">
-        <v>10771300</v>
+        <v>10724000</v>
       </c>
       <c r="H49" s="3">
-        <v>30358600</v>
+        <v>10669300</v>
       </c>
       <c r="I49" s="3">
-        <v>10422400</v>
+        <v>30070900</v>
       </c>
       <c r="J49" s="3">
+        <v>10323600</v>
+      </c>
+      <c r="K49" s="3">
         <v>10331500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8029800</v>
+        <v>7298900</v>
       </c>
       <c r="E52" s="3">
-        <v>101259000</v>
+        <v>7325000</v>
       </c>
       <c r="F52" s="3">
-        <v>17263100</v>
+        <v>99567100</v>
       </c>
       <c r="G52" s="3">
-        <v>26019800</v>
+        <v>16558200</v>
       </c>
       <c r="H52" s="3">
-        <v>13774900</v>
+        <v>25773200</v>
       </c>
       <c r="I52" s="3">
-        <v>4761500</v>
+        <v>7088900</v>
       </c>
       <c r="J52" s="3">
+        <v>4716400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4436300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1492250000</v>
+        <v>1478150000</v>
       </c>
       <c r="E54" s="3">
-        <v>1597430000</v>
+        <v>1478110000</v>
       </c>
       <c r="F54" s="3">
-        <v>1474820000</v>
+        <v>1582290000</v>
       </c>
       <c r="G54" s="3">
-        <v>1788080000</v>
+        <v>1460840000</v>
       </c>
       <c r="H54" s="3">
-        <v>1769280000</v>
+        <v>1771130000</v>
       </c>
       <c r="I54" s="3">
-        <v>1959820000</v>
+        <v>1752510000</v>
       </c>
       <c r="J54" s="3">
+        <v>1941250000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2056940000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,89 +2042,99 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6008500</v>
+        <v>4593800</v>
       </c>
       <c r="E57" s="3">
-        <v>5770200</v>
+        <v>5951600</v>
       </c>
       <c r="F57" s="3">
-        <v>4964300</v>
+        <v>5715500</v>
       </c>
       <c r="G57" s="3">
-        <v>5071000</v>
+        <v>4917200</v>
       </c>
       <c r="H57" s="3">
-        <v>6501000</v>
+        <v>5022900</v>
       </c>
       <c r="I57" s="3">
-        <v>6497000</v>
+        <v>6439400</v>
       </c>
       <c r="J57" s="3">
+        <v>6435500</v>
+      </c>
+      <c r="K57" s="3">
         <v>6809100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>229456000</v>
+        <v>141430000</v>
       </c>
       <c r="E58" s="3">
-        <v>80945700</v>
+        <v>227281000</v>
       </c>
       <c r="F58" s="3">
-        <v>70791900</v>
+        <v>80178500</v>
       </c>
       <c r="G58" s="3">
-        <v>222345000</v>
+        <v>70121000</v>
       </c>
       <c r="H58" s="3">
-        <v>321867000</v>
+        <v>220238000</v>
       </c>
       <c r="I58" s="3">
-        <v>443374000</v>
+        <v>573572000</v>
       </c>
       <c r="J58" s="3">
+        <v>439172000</v>
+      </c>
+      <c r="K58" s="3">
         <v>443808000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5974300</v>
+        <v>5875900</v>
       </c>
       <c r="E59" s="3">
-        <v>6793300</v>
+        <v>5917700</v>
       </c>
       <c r="F59" s="3">
-        <v>6813100</v>
+        <v>6728900</v>
       </c>
       <c r="G59" s="3">
-        <v>7625500</v>
+        <v>6748500</v>
       </c>
       <c r="H59" s="3">
-        <v>25223100</v>
+        <v>7553300</v>
       </c>
       <c r="I59" s="3">
-        <v>7234400</v>
+        <v>24984100</v>
       </c>
       <c r="J59" s="3">
+        <v>7165900</v>
+      </c>
+      <c r="K59" s="3">
         <v>8369500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,63 +2159,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>127913000</v>
+        <v>105041000</v>
       </c>
       <c r="E61" s="3">
-        <v>75870800</v>
+        <v>93551600</v>
       </c>
       <c r="F61" s="3">
-        <v>81497400</v>
+        <v>75151700</v>
       </c>
       <c r="G61" s="3">
-        <v>82843200</v>
+        <v>80725100</v>
       </c>
       <c r="H61" s="3">
-        <v>79958100</v>
+        <v>82058100</v>
       </c>
       <c r="I61" s="3">
-        <v>31666200</v>
+        <v>79200300</v>
       </c>
       <c r="J61" s="3">
+        <v>31366000</v>
+      </c>
+      <c r="K61" s="3">
         <v>32819700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5134200</v>
+        <v>3936400</v>
       </c>
       <c r="E62" s="3">
-        <v>5995300</v>
+        <v>5085500</v>
       </c>
       <c r="F62" s="3">
-        <v>6171800</v>
+        <v>5938500</v>
       </c>
       <c r="G62" s="3">
-        <v>7862600</v>
+        <v>6113300</v>
       </c>
       <c r="H62" s="3">
-        <v>10049700</v>
+        <v>7788000</v>
       </c>
       <c r="I62" s="3">
-        <v>5780700</v>
+        <v>9954500</v>
       </c>
       <c r="J62" s="3">
+        <v>5725900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3078700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1408100000</v>
+        <v>1396560000</v>
       </c>
       <c r="E66" s="3">
-        <v>1512010000</v>
+        <v>1394750000</v>
       </c>
       <c r="F66" s="3">
-        <v>1396060000</v>
+        <v>1497680000</v>
       </c>
       <c r="G66" s="3">
-        <v>1709640000</v>
+        <v>1382830000</v>
       </c>
       <c r="H66" s="3">
-        <v>1696350000</v>
+        <v>1693440000</v>
       </c>
       <c r="I66" s="3">
-        <v>1893180000</v>
+        <v>1680270000</v>
       </c>
       <c r="J66" s="3">
+        <v>1875230000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1985370000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37317800</v>
+        <v>57810900</v>
       </c>
       <c r="E72" s="3">
-        <v>40202900</v>
+        <v>37438900</v>
       </c>
       <c r="F72" s="3">
-        <v>40848100</v>
+        <v>39725400</v>
       </c>
       <c r="G72" s="3">
-        <v>41758000</v>
+        <v>40874500</v>
       </c>
       <c r="H72" s="3">
-        <v>45858500</v>
+        <v>42571400</v>
       </c>
       <c r="I72" s="3">
-        <v>47378100</v>
+        <v>46689100</v>
       </c>
       <c r="J72" s="3">
+        <v>46929100</v>
+      </c>
+      <c r="K72" s="3">
         <v>51594500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84149500</v>
+        <v>81592400</v>
       </c>
       <c r="E76" s="3">
-        <v>85424100</v>
+        <v>83351900</v>
       </c>
       <c r="F76" s="3">
-        <v>78757200</v>
+        <v>84614500</v>
       </c>
       <c r="G76" s="3">
-        <v>78437200</v>
+        <v>78010800</v>
       </c>
       <c r="H76" s="3">
-        <v>72930400</v>
+        <v>77693800</v>
       </c>
       <c r="I76" s="3">
-        <v>66649300</v>
+        <v>72239200</v>
       </c>
       <c r="J76" s="3">
+        <v>66017700</v>
+      </c>
+      <c r="K76" s="3">
         <v>71570200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2301700</v>
+        <v>2080400</v>
       </c>
       <c r="E81" s="3">
-        <v>2305700</v>
+        <v>-2279900</v>
       </c>
       <c r="F81" s="3">
-        <v>-426600</v>
+        <v>2283800</v>
       </c>
       <c r="G81" s="3">
-        <v>-158000</v>
+        <v>-422600</v>
       </c>
       <c r="H81" s="3">
-        <v>711100</v>
+        <v>-156500</v>
       </c>
       <c r="I81" s="3">
-        <v>-821700</v>
+        <v>704300</v>
       </c>
       <c r="J81" s="3">
+        <v>-813900</v>
+      </c>
+      <c r="K81" s="3">
         <v>3850300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1634100</v>
+        <v>1644700</v>
       </c>
       <c r="E83" s="3">
-        <v>1660500</v>
+        <v>1618600</v>
       </c>
       <c r="F83" s="3">
-        <v>1599900</v>
+        <v>1644700</v>
       </c>
       <c r="G83" s="3">
-        <v>1459000</v>
+        <v>1584700</v>
       </c>
       <c r="H83" s="3">
-        <v>1677600</v>
+        <v>1445200</v>
       </c>
       <c r="I83" s="3">
-        <v>1473500</v>
+        <v>1661700</v>
       </c>
       <c r="J83" s="3">
+        <v>1459500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1453700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80076600</v>
+        <v>11091900</v>
       </c>
       <c r="E89" s="3">
-        <v>15394600</v>
+        <v>79317700</v>
       </c>
       <c r="F89" s="3">
-        <v>17793800</v>
+        <v>15248700</v>
       </c>
       <c r="G89" s="3">
-        <v>-11306000</v>
+        <v>17625100</v>
       </c>
       <c r="H89" s="3">
-        <v>-32843400</v>
+        <v>-11198800</v>
       </c>
       <c r="I89" s="3">
-        <v>-17803000</v>
+        <v>-32532100</v>
       </c>
       <c r="J89" s="3">
+        <v>-17634300</v>
+      </c>
+      <c r="K89" s="3">
         <v>38290900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1917200</v>
+        <v>-1828600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2247800</v>
+        <v>-1899100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2538800</v>
+        <v>-2226500</v>
       </c>
       <c r="G91" s="3">
-        <v>-909900</v>
+        <v>-2514700</v>
       </c>
       <c r="H91" s="3">
-        <v>-969200</v>
+        <v>-901300</v>
       </c>
       <c r="I91" s="3">
-        <v>-795300</v>
+        <v>-960000</v>
       </c>
       <c r="J91" s="3">
+        <v>-787800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1914600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4611400</v>
+        <v>883000</v>
       </c>
       <c r="E94" s="3">
-        <v>48335400</v>
+        <v>4567700</v>
       </c>
       <c r="F94" s="3">
-        <v>-8626300</v>
+        <v>47877300</v>
       </c>
       <c r="G94" s="3">
-        <v>11099200</v>
+        <v>-8544500</v>
       </c>
       <c r="H94" s="3">
-        <v>-29818700</v>
+        <v>10994000</v>
       </c>
       <c r="I94" s="3">
-        <v>-9345300</v>
+        <v>-29536100</v>
       </c>
       <c r="J94" s="3">
+        <v>-9256700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2517700</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1676300</v>
+        <v>-2162500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1717100</v>
+        <v>-1660400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1969900</v>
+        <v>-1700800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2222700</v>
+        <v>-1951200</v>
       </c>
       <c r="H96" s="3">
         <v>-2201700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1879100</v>
+        <v>-2180800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1861300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1826400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1265400</v>
+        <v>-8852400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1734200</v>
+        <v>1253400</v>
       </c>
       <c r="F100" s="3">
-        <v>-755800</v>
+        <v>-1717800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3693600</v>
+        <v>-748700</v>
       </c>
       <c r="H100" s="3">
-        <v>7782200</v>
+        <v>-3658600</v>
       </c>
       <c r="I100" s="3">
-        <v>-3742300</v>
+        <v>7708500</v>
       </c>
       <c r="J100" s="3">
+        <v>-3706800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7849400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6285000</v>
+        <v>5425900</v>
       </c>
       <c r="E101" s="3">
-        <v>13790700</v>
+        <v>-6225500</v>
       </c>
       <c r="F101" s="3">
-        <v>2224100</v>
+        <v>13660000</v>
       </c>
       <c r="G101" s="3">
-        <v>-412200</v>
+        <v>2203000</v>
       </c>
       <c r="H101" s="3">
-        <v>260700</v>
+        <v>-408200</v>
       </c>
       <c r="I101" s="3">
-        <v>-5413300</v>
+        <v>258300</v>
       </c>
       <c r="J101" s="3">
+        <v>-5362000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3862100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79668400</v>
+        <v>8548400</v>
       </c>
       <c r="E102" s="3">
-        <v>75786500</v>
+        <v>78913400</v>
       </c>
       <c r="F102" s="3">
-        <v>10635700</v>
+        <v>75068300</v>
       </c>
       <c r="G102" s="3">
-        <v>-4312500</v>
+        <v>10534900</v>
       </c>
       <c r="H102" s="3">
-        <v>-54619100</v>
+        <v>-4271600</v>
       </c>
       <c r="I102" s="3">
-        <v>-36303900</v>
+        <v>-54101500</v>
       </c>
       <c r="J102" s="3">
+        <v>-35959800</v>
+      </c>
+      <c r="K102" s="3">
         <v>24061700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/BCS_YR_FIN.xlsx
+++ b/Financials/Yearly/BCS_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDD4D9C-7CCC-46C9-90A0-B03FD5B1B11F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BCS" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,37 +709,37 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17621200</v>
+        <v>18798800</v>
       </c>
       <c r="E8" s="3">
-        <v>17779000</v>
+        <v>17622300</v>
       </c>
       <c r="F8" s="3">
-        <v>18966000</v>
+        <v>18798800</v>
       </c>
       <c r="G8" s="3">
-        <v>18199000</v>
+        <v>18038600</v>
       </c>
       <c r="H8" s="3">
-        <v>18513400</v>
+        <v>18350100</v>
       </c>
       <c r="I8" s="3">
-        <v>23888400</v>
+        <v>23677800</v>
       </c>
       <c r="J8" s="3">
-        <v>25058400</v>
+        <v>24837500</v>
       </c>
       <c r="K8" s="3">
         <v>27111400</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +769,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,7 +799,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,7 +873,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,37 +903,37 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1633000</v>
+        <v>-1618600</v>
       </c>
       <c r="E15" s="3">
-        <v>-1514300</v>
+        <v>-1501000</v>
       </c>
       <c r="F15" s="3">
-        <v>-1515600</v>
+        <v>-1502200</v>
       </c>
       <c r="G15" s="3">
-        <v>-1363000</v>
+        <v>-1351000</v>
       </c>
       <c r="H15" s="3">
-        <v>-1237800</v>
+        <v>-1226900</v>
       </c>
       <c r="I15" s="3">
-        <v>-1470000</v>
+        <v>-1457000</v>
       </c>
       <c r="J15" s="3">
-        <v>-1440000</v>
+        <v>-1427300</v>
       </c>
       <c r="K15" s="3">
         <v>-1437900</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9061000</v>
+        <v>8981200</v>
       </c>
       <c r="E17" s="3">
-        <v>7985000</v>
+        <v>7914600</v>
       </c>
       <c r="F17" s="3">
-        <v>8317600</v>
+        <v>8244200</v>
       </c>
       <c r="G17" s="3">
-        <v>6661100</v>
+        <v>6602400</v>
       </c>
       <c r="H17" s="3">
-        <v>7733300</v>
+        <v>7665100</v>
       </c>
       <c r="I17" s="3">
-        <v>12764000</v>
+        <v>12651400</v>
       </c>
       <c r="J17" s="3">
-        <v>14214400</v>
+        <v>14089000</v>
       </c>
       <c r="K17" s="3">
         <v>18421900</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8560200</v>
+        <v>9817600</v>
       </c>
       <c r="E18" s="3">
-        <v>9794100</v>
+        <v>9707700</v>
       </c>
       <c r="F18" s="3">
-        <v>10648400</v>
+        <v>10554500</v>
       </c>
       <c r="G18" s="3">
-        <v>11537900</v>
+        <v>11436200</v>
       </c>
       <c r="H18" s="3">
-        <v>10780100</v>
+        <v>10685100</v>
       </c>
       <c r="I18" s="3">
-        <v>11124500</v>
+        <v>11026400</v>
       </c>
       <c r="J18" s="3">
-        <v>10844000</v>
+        <v>10748400</v>
       </c>
       <c r="K18" s="3">
         <v>8689500</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,67 +1018,67 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4005500</v>
+        <v>-5300500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5175500</v>
+        <v>-5129900</v>
       </c>
       <c r="F20" s="3">
-        <v>-6435500</v>
+        <v>-6378700</v>
       </c>
       <c r="G20" s="3">
-        <v>-10043200</v>
+        <v>-9954600</v>
       </c>
       <c r="H20" s="3">
-        <v>-9067600</v>
+        <v>-8987600</v>
       </c>
       <c r="I20" s="3">
-        <v>-7383700</v>
+        <v>-7318600</v>
       </c>
       <c r="J20" s="3">
-        <v>-9804500</v>
+        <v>-9718100</v>
       </c>
       <c r="K20" s="3">
         <v>-1091600</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6217800</v>
+        <v>6156400</v>
       </c>
       <c r="E21" s="3">
-        <v>6255300</v>
+        <v>6191100</v>
       </c>
       <c r="F21" s="3">
-        <v>5876100</v>
+        <v>5815100</v>
       </c>
       <c r="G21" s="3">
-        <v>3097200</v>
+        <v>3061100</v>
       </c>
       <c r="H21" s="3">
-        <v>3173900</v>
+        <v>3137900</v>
       </c>
       <c r="I21" s="3">
-        <v>5421000</v>
+        <v>5364000</v>
       </c>
       <c r="J21" s="3">
-        <v>2515400</v>
+        <v>2485100</v>
       </c>
       <c r="K21" s="3">
         <v>9046200</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1143,67 +1108,67 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4554700</v>
+        <v>4517100</v>
       </c>
       <c r="E23" s="3">
-        <v>4618600</v>
+        <v>4577800</v>
       </c>
       <c r="F23" s="3">
-        <v>4212900</v>
+        <v>4175800</v>
       </c>
       <c r="G23" s="3">
-        <v>1494700</v>
+        <v>1481600</v>
       </c>
       <c r="H23" s="3">
-        <v>1712600</v>
+        <v>1697500</v>
       </c>
       <c r="I23" s="3">
-        <v>3740800</v>
+        <v>3707800</v>
       </c>
       <c r="J23" s="3">
-        <v>1039500</v>
+        <v>1030400</v>
       </c>
       <c r="K23" s="3">
         <v>7597900</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>890800</v>
+        <v>1450500</v>
       </c>
       <c r="E24" s="3">
-        <v>1535200</v>
+        <v>1521600</v>
       </c>
       <c r="F24" s="3">
-        <v>1295200</v>
+        <v>1283800</v>
       </c>
       <c r="G24" s="3">
-        <v>1498700</v>
+        <v>1485400</v>
       </c>
       <c r="H24" s="3">
-        <v>1462100</v>
+        <v>1449200</v>
       </c>
       <c r="I24" s="3">
-        <v>2049100</v>
+        <v>2031000</v>
       </c>
       <c r="J24" s="3">
-        <v>803500</v>
+        <v>796400</v>
       </c>
       <c r="K24" s="3">
         <v>2504500</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3663800</v>
+        <v>3066500</v>
       </c>
       <c r="E26" s="3">
-        <v>3083400</v>
+        <v>3056200</v>
       </c>
       <c r="F26" s="3">
-        <v>2917700</v>
+        <v>2892000</v>
       </c>
       <c r="G26" s="3">
         <v>-3900</v>
       </c>
       <c r="H26" s="3">
-        <v>250400</v>
+        <v>248200</v>
       </c>
       <c r="I26" s="3">
-        <v>1691700</v>
+        <v>1676800</v>
       </c>
       <c r="J26" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="K26" s="3">
         <v>5093300</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2653000</v>
+        <v>2064600</v>
       </c>
       <c r="E27" s="3">
-        <v>2152100</v>
+        <v>2133100</v>
       </c>
       <c r="F27" s="3">
-        <v>2037300</v>
+        <v>2019400</v>
       </c>
       <c r="G27" s="3">
-        <v>-816500</v>
+        <v>-809300</v>
       </c>
       <c r="H27" s="3">
-        <v>-590900</v>
+        <v>-585600</v>
       </c>
       <c r="I27" s="3">
-        <v>704300</v>
+        <v>698100</v>
       </c>
       <c r="J27" s="3">
-        <v>-813900</v>
+        <v>-806700</v>
       </c>
       <c r="K27" s="3">
         <v>3850300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,24 +1288,24 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-572600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4432000</v>
+        <v>-4393000</v>
       </c>
       <c r="F29" s="3">
-        <v>246500</v>
+        <v>244300</v>
       </c>
       <c r="G29" s="3">
-        <v>393900</v>
+        <v>390400</v>
       </c>
       <c r="H29" s="3">
-        <v>434300</v>
+        <v>430500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4005500</v>
+        <v>5300500</v>
       </c>
       <c r="E32" s="3">
-        <v>5175500</v>
+        <v>5129900</v>
       </c>
       <c r="F32" s="3">
-        <v>6435500</v>
+        <v>6378700</v>
       </c>
       <c r="G32" s="3">
-        <v>10043200</v>
+        <v>9954600</v>
       </c>
       <c r="H32" s="3">
-        <v>9067600</v>
+        <v>8987600</v>
       </c>
       <c r="I32" s="3">
-        <v>7383700</v>
+        <v>7318600</v>
       </c>
       <c r="J32" s="3">
-        <v>9804500</v>
+        <v>9718100</v>
       </c>
       <c r="K32" s="3">
         <v>1091600</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2080400</v>
+        <v>2064600</v>
       </c>
       <c r="E33" s="3">
-        <v>-2279900</v>
+        <v>-2259800</v>
       </c>
       <c r="F33" s="3">
-        <v>2283800</v>
+        <v>2263700</v>
       </c>
       <c r="G33" s="3">
-        <v>-422600</v>
+        <v>-418900</v>
       </c>
       <c r="H33" s="3">
-        <v>-156500</v>
+        <v>-155100</v>
       </c>
       <c r="I33" s="3">
-        <v>704300</v>
+        <v>698100</v>
       </c>
       <c r="J33" s="3">
-        <v>-813900</v>
+        <v>-806700</v>
       </c>
       <c r="K33" s="3">
         <v>3850300</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2080400</v>
+        <v>2064600</v>
       </c>
       <c r="E35" s="3">
-        <v>-2279900</v>
+        <v>-2259800</v>
       </c>
       <c r="F35" s="3">
-        <v>2283800</v>
+        <v>2263700</v>
       </c>
       <c r="G35" s="3">
-        <v>-422600</v>
+        <v>-418900</v>
       </c>
       <c r="H35" s="3">
-        <v>-156500</v>
+        <v>-155100</v>
       </c>
       <c r="I35" s="3">
-        <v>704300</v>
+        <v>698100</v>
       </c>
       <c r="J35" s="3">
-        <v>-813900</v>
+        <v>-806700</v>
       </c>
       <c r="K35" s="3">
         <v>3850300</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,67 +1561,67 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>244746000</v>
+        <v>242588000</v>
       </c>
       <c r="E41" s="3">
-        <v>239821000</v>
+        <v>237706000</v>
       </c>
       <c r="F41" s="3">
-        <v>191826000</v>
+        <v>190135000</v>
       </c>
       <c r="G41" s="3">
-        <v>120089000</v>
+        <v>119030000</v>
       </c>
       <c r="H41" s="3">
-        <v>108279000</v>
+        <v>107324000</v>
       </c>
       <c r="I41" s="3">
-        <v>225361000</v>
+        <v>223374000</v>
       </c>
       <c r="J41" s="3">
-        <v>165195000</v>
+        <v>163738000</v>
       </c>
       <c r="K41" s="3">
         <v>203233000</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>589178000</v>
+        <v>583983000</v>
       </c>
       <c r="E42" s="3">
-        <v>727054000</v>
+        <v>720643000</v>
       </c>
       <c r="F42" s="3">
-        <v>574314000</v>
+        <v>569250000</v>
       </c>
       <c r="G42" s="3">
-        <v>565085000</v>
+        <v>560102000</v>
       </c>
       <c r="H42" s="3">
-        <v>895251000</v>
+        <v>887358000</v>
       </c>
       <c r="I42" s="3">
-        <v>924907000</v>
+        <v>916752000</v>
       </c>
       <c r="J42" s="3">
-        <v>234304000</v>
+        <v>232238000</v>
       </c>
       <c r="K42" s="3">
         <v>205747000</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1686,7 +1651,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1681,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1711,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1776,97 +1741,97 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>993900</v>
+        <v>985100</v>
       </c>
       <c r="E47" s="3">
-        <v>936500</v>
+        <v>928200</v>
       </c>
       <c r="F47" s="3">
-        <v>892100</v>
+        <v>884300</v>
       </c>
       <c r="G47" s="3">
-        <v>747400</v>
+        <v>740800</v>
       </c>
       <c r="H47" s="3">
-        <v>927400</v>
+        <v>919200</v>
       </c>
       <c r="I47" s="3">
-        <v>851700</v>
+        <v>844200</v>
       </c>
       <c r="J47" s="3">
-        <v>825600</v>
+        <v>818300</v>
       </c>
       <c r="K47" s="3">
         <v>562300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3306400</v>
+        <v>3277300</v>
       </c>
       <c r="E48" s="3">
-        <v>6709400</v>
+        <v>6650200</v>
       </c>
       <c r="F48" s="3">
-        <v>3684700</v>
+        <v>3652200</v>
       </c>
       <c r="G48" s="3">
-        <v>4523300</v>
+        <v>4483500</v>
       </c>
       <c r="H48" s="3">
-        <v>4938100</v>
+        <v>4894600</v>
       </c>
       <c r="I48" s="3">
-        <v>10997900</v>
+        <v>10901000</v>
       </c>
       <c r="J48" s="3">
-        <v>7505000</v>
+        <v>7438800</v>
       </c>
       <c r="K48" s="3">
         <v>9436100</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10399300</v>
+        <v>10307600</v>
       </c>
       <c r="E49" s="3">
-        <v>20475100</v>
+        <v>20294500</v>
       </c>
       <c r="F49" s="3">
-        <v>10077100</v>
+        <v>9988300</v>
       </c>
       <c r="G49" s="3">
-        <v>10724000</v>
+        <v>10629500</v>
       </c>
       <c r="H49" s="3">
-        <v>10669300</v>
+        <v>10575200</v>
       </c>
       <c r="I49" s="3">
-        <v>30070900</v>
+        <v>29805700</v>
       </c>
       <c r="J49" s="3">
-        <v>10323600</v>
+        <v>10232600</v>
       </c>
       <c r="K49" s="3">
         <v>10331500</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7298900</v>
+        <v>7234600</v>
       </c>
       <c r="E52" s="3">
-        <v>7325000</v>
+        <v>7260400</v>
       </c>
       <c r="F52" s="3">
-        <v>99567100</v>
+        <v>98689200</v>
       </c>
       <c r="G52" s="3">
-        <v>16558200</v>
+        <v>16412200</v>
       </c>
       <c r="H52" s="3">
-        <v>25773200</v>
+        <v>25545900</v>
       </c>
       <c r="I52" s="3">
-        <v>7088900</v>
+        <v>7026400</v>
       </c>
       <c r="J52" s="3">
-        <v>4716400</v>
+        <v>4674800</v>
       </c>
       <c r="K52" s="3">
         <v>4436300</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1478150000</v>
+        <v>1465120000</v>
       </c>
       <c r="E54" s="3">
-        <v>1478110000</v>
+        <v>1465070000</v>
       </c>
       <c r="F54" s="3">
-        <v>1582290000</v>
+        <v>1568340000</v>
       </c>
       <c r="G54" s="3">
-        <v>1460840000</v>
+        <v>1447960000</v>
       </c>
       <c r="H54" s="3">
-        <v>1771130000</v>
+        <v>1755510000</v>
       </c>
       <c r="I54" s="3">
-        <v>1752510000</v>
+        <v>1737060000</v>
       </c>
       <c r="J54" s="3">
-        <v>1941250000</v>
+        <v>1924130000</v>
       </c>
       <c r="K54" s="3">
         <v>2056940000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,97 +2009,97 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4593800</v>
+        <v>4553300</v>
       </c>
       <c r="E57" s="3">
-        <v>5951600</v>
+        <v>5899100</v>
       </c>
       <c r="F57" s="3">
-        <v>5715500</v>
+        <v>5665100</v>
       </c>
       <c r="G57" s="3">
-        <v>4917200</v>
+        <v>4873900</v>
       </c>
       <c r="H57" s="3">
-        <v>5022900</v>
+        <v>4978600</v>
       </c>
       <c r="I57" s="3">
-        <v>6439400</v>
+        <v>6382600</v>
       </c>
       <c r="J57" s="3">
-        <v>6435500</v>
+        <v>6378700</v>
       </c>
       <c r="K57" s="3">
         <v>6809100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>141430000</v>
+        <v>140183000</v>
       </c>
       <c r="E58" s="3">
-        <v>227281000</v>
+        <v>225277000</v>
       </c>
       <c r="F58" s="3">
-        <v>80178500</v>
+        <v>79471600</v>
       </c>
       <c r="G58" s="3">
-        <v>70121000</v>
+        <v>69502800</v>
       </c>
       <c r="H58" s="3">
-        <v>220238000</v>
+        <v>218296000</v>
       </c>
       <c r="I58" s="3">
-        <v>573572000</v>
+        <v>568515000</v>
       </c>
       <c r="J58" s="3">
-        <v>439172000</v>
+        <v>435300000</v>
       </c>
       <c r="K58" s="3">
         <v>443808000</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5875900</v>
+        <v>5824100</v>
       </c>
       <c r="E59" s="3">
-        <v>5917700</v>
+        <v>5865500</v>
       </c>
       <c r="F59" s="3">
-        <v>6728900</v>
+        <v>6669600</v>
       </c>
       <c r="G59" s="3">
-        <v>6748500</v>
+        <v>6689000</v>
       </c>
       <c r="H59" s="3">
-        <v>7553300</v>
+        <v>7486700</v>
       </c>
       <c r="I59" s="3">
-        <v>24984100</v>
+        <v>24763800</v>
       </c>
       <c r="J59" s="3">
-        <v>7165900</v>
+        <v>7102700</v>
       </c>
       <c r="K59" s="3">
         <v>8369500</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2164,67 +2129,67 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>105041000</v>
+        <v>104115000</v>
       </c>
       <c r="E61" s="3">
-        <v>93551600</v>
+        <v>92726800</v>
       </c>
       <c r="F61" s="3">
-        <v>75151700</v>
+        <v>74489100</v>
       </c>
       <c r="G61" s="3">
-        <v>80725100</v>
+        <v>80013300</v>
       </c>
       <c r="H61" s="3">
-        <v>82058100</v>
+        <v>81334600</v>
       </c>
       <c r="I61" s="3">
-        <v>79200300</v>
+        <v>78502000</v>
       </c>
       <c r="J61" s="3">
-        <v>31366000</v>
+        <v>31089500</v>
       </c>
       <c r="K61" s="3">
         <v>32819700</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3936400</v>
+        <v>3901700</v>
       </c>
       <c r="E62" s="3">
-        <v>5085500</v>
+        <v>5040700</v>
       </c>
       <c r="F62" s="3">
-        <v>5938500</v>
+        <v>5886200</v>
       </c>
       <c r="G62" s="3">
-        <v>6113300</v>
+        <v>6059400</v>
       </c>
       <c r="H62" s="3">
-        <v>7788000</v>
+        <v>7719400</v>
       </c>
       <c r="I62" s="3">
-        <v>9954500</v>
+        <v>9866700</v>
       </c>
       <c r="J62" s="3">
-        <v>5725900</v>
+        <v>5675400</v>
       </c>
       <c r="K62" s="3">
         <v>3078700</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1396560000</v>
+        <v>1384250000</v>
       </c>
       <c r="E66" s="3">
-        <v>1394750000</v>
+        <v>1382460000</v>
       </c>
       <c r="F66" s="3">
-        <v>1497680000</v>
+        <v>1484470000</v>
       </c>
       <c r="G66" s="3">
-        <v>1382830000</v>
+        <v>1370640000</v>
       </c>
       <c r="H66" s="3">
-        <v>1693440000</v>
+        <v>1678510000</v>
       </c>
       <c r="I66" s="3">
-        <v>1680270000</v>
+        <v>1665450000</v>
       </c>
       <c r="J66" s="3">
-        <v>1875230000</v>
+        <v>1858700000</v>
       </c>
       <c r="K66" s="3">
         <v>1985370000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57810900</v>
+        <v>57301200</v>
       </c>
       <c r="E72" s="3">
-        <v>37438900</v>
+        <v>38148200</v>
       </c>
       <c r="F72" s="3">
-        <v>39725400</v>
+        <v>39375100</v>
       </c>
       <c r="G72" s="3">
-        <v>40874500</v>
+        <v>40514100</v>
       </c>
       <c r="H72" s="3">
-        <v>42571400</v>
+        <v>42196000</v>
       </c>
       <c r="I72" s="3">
-        <v>46689100</v>
+        <v>46277400</v>
       </c>
       <c r="J72" s="3">
-        <v>46929100</v>
+        <v>46515300</v>
       </c>
       <c r="K72" s="3">
         <v>51594500</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81592400</v>
+        <v>80873000</v>
       </c>
       <c r="E76" s="3">
-        <v>83351900</v>
+        <v>82617000</v>
       </c>
       <c r="F76" s="3">
-        <v>84614500</v>
+        <v>83868500</v>
       </c>
       <c r="G76" s="3">
-        <v>78010800</v>
+        <v>77323000</v>
       </c>
       <c r="H76" s="3">
-        <v>77693800</v>
+        <v>77008800</v>
       </c>
       <c r="I76" s="3">
-        <v>72239200</v>
+        <v>71602300</v>
       </c>
       <c r="J76" s="3">
-        <v>66017700</v>
+        <v>65435600</v>
       </c>
       <c r="K76" s="3">
         <v>71570200</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2080400</v>
+        <v>2064600</v>
       </c>
       <c r="E81" s="3">
-        <v>-2279900</v>
+        <v>-2259800</v>
       </c>
       <c r="F81" s="3">
-        <v>2283800</v>
+        <v>2263700</v>
       </c>
       <c r="G81" s="3">
-        <v>-422600</v>
+        <v>-418900</v>
       </c>
       <c r="H81" s="3">
-        <v>-156500</v>
+        <v>-155100</v>
       </c>
       <c r="I81" s="3">
-        <v>704300</v>
+        <v>698100</v>
       </c>
       <c r="J81" s="3">
-        <v>-813900</v>
+        <v>-806700</v>
       </c>
       <c r="K81" s="3">
         <v>3850300</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1644700</v>
+        <v>1630200</v>
       </c>
       <c r="E83" s="3">
-        <v>1618600</v>
+        <v>1604400</v>
       </c>
       <c r="F83" s="3">
-        <v>1644700</v>
+        <v>1630200</v>
       </c>
       <c r="G83" s="3">
-        <v>1584700</v>
+        <v>1570800</v>
       </c>
       <c r="H83" s="3">
-        <v>1445200</v>
+        <v>1432400</v>
       </c>
       <c r="I83" s="3">
-        <v>1661700</v>
+        <v>1647000</v>
       </c>
       <c r="J83" s="3">
-        <v>1459500</v>
+        <v>1446700</v>
       </c>
       <c r="K83" s="3">
         <v>1453700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11091900</v>
+        <v>10994100</v>
       </c>
       <c r="E89" s="3">
-        <v>79317700</v>
+        <v>78618400</v>
       </c>
       <c r="F89" s="3">
-        <v>15248700</v>
+        <v>15114200</v>
       </c>
       <c r="G89" s="3">
-        <v>17625100</v>
+        <v>17469700</v>
       </c>
       <c r="H89" s="3">
-        <v>-11198800</v>
+        <v>-11100100</v>
       </c>
       <c r="I89" s="3">
-        <v>-32532100</v>
+        <v>-32245300</v>
       </c>
       <c r="J89" s="3">
-        <v>-17634300</v>
+        <v>-17478800</v>
       </c>
       <c r="K89" s="3">
         <v>38290900</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1828600</v>
+        <v>-1812500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1899100</v>
+        <v>-1882300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2226500</v>
+        <v>-2206800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2514700</v>
+        <v>-2492500</v>
       </c>
       <c r="H91" s="3">
-        <v>-901300</v>
+        <v>-893300</v>
       </c>
       <c r="I91" s="3">
-        <v>-960000</v>
+        <v>-951500</v>
       </c>
       <c r="J91" s="3">
-        <v>-787800</v>
+        <v>-780900</v>
       </c>
       <c r="K91" s="3">
         <v>-1914600</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>883000</v>
+        <v>875200</v>
       </c>
       <c r="E94" s="3">
-        <v>4567700</v>
+        <v>4527400</v>
       </c>
       <c r="F94" s="3">
-        <v>47877300</v>
+        <v>47455200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8544500</v>
+        <v>-8469200</v>
       </c>
       <c r="H94" s="3">
-        <v>10994000</v>
+        <v>10897100</v>
       </c>
       <c r="I94" s="3">
-        <v>-29536100</v>
+        <v>-29275700</v>
       </c>
       <c r="J94" s="3">
-        <v>-9256700</v>
+        <v>-9175100</v>
       </c>
       <c r="K94" s="3">
         <v>-2517700</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2162500</v>
+        <v>-2143500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1660400</v>
+        <v>-1645700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1700800</v>
+        <v>-1685800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1951200</v>
+        <v>-1934000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2201700</v>
+        <v>-2182300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2180800</v>
+        <v>-2161600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1861300</v>
+        <v>-1844800</v>
       </c>
       <c r="K96" s="3">
         <v>-1826400</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8852400</v>
+        <v>-8774300</v>
       </c>
       <c r="E100" s="3">
-        <v>1253400</v>
+        <v>1242400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1717800</v>
+        <v>-1702600</v>
       </c>
       <c r="G100" s="3">
-        <v>-748700</v>
+        <v>-742100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3658600</v>
+        <v>-3626300</v>
       </c>
       <c r="I100" s="3">
-        <v>7708500</v>
+        <v>7640500</v>
       </c>
       <c r="J100" s="3">
-        <v>-3706800</v>
+        <v>-3674200</v>
       </c>
       <c r="K100" s="3">
         <v>-7849400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5425900</v>
+        <v>5378100</v>
       </c>
       <c r="E101" s="3">
-        <v>-6225500</v>
+        <v>-6170600</v>
       </c>
       <c r="F101" s="3">
-        <v>13660000</v>
+        <v>13539600</v>
       </c>
       <c r="G101" s="3">
-        <v>2203000</v>
+        <v>2183600</v>
       </c>
       <c r="H101" s="3">
-        <v>-408200</v>
+        <v>-404600</v>
       </c>
       <c r="I101" s="3">
-        <v>258300</v>
+        <v>256000</v>
       </c>
       <c r="J101" s="3">
-        <v>-5362000</v>
+        <v>-5314700</v>
       </c>
       <c r="K101" s="3">
         <v>-3862100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8548400</v>
+        <v>8473100</v>
       </c>
       <c r="E102" s="3">
-        <v>78913400</v>
+        <v>78217600</v>
       </c>
       <c r="F102" s="3">
-        <v>75068300</v>
+        <v>74406400</v>
       </c>
       <c r="G102" s="3">
-        <v>10534900</v>
+        <v>10442000</v>
       </c>
       <c r="H102" s="3">
-        <v>-4271600</v>
+        <v>-4234000</v>
       </c>
       <c r="I102" s="3">
-        <v>-54101500</v>
+        <v>-53624500</v>
       </c>
       <c r="J102" s="3">
-        <v>-35959800</v>
+        <v>-35642800</v>
       </c>
       <c r="K102" s="3">
         <v>24061700</v>
